--- a/Statistical_Learning/Data_Analyse/data_raket.xlsx
+++ b/Statistical_Learning/Data_Analyse/data_raket.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fontys\data\werk\fontys 2007-\TN2022-2023\data analyse\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lteeg\Documents\Github\School\Statistical_Learning\Data_Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88537F7-C071-41EA-BB2E-CE172DEA654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4596"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case 3 dataset " sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>test</t>
   </si>
@@ -34,17 +35,30 @@
   <si>
     <t>resultaat (0=mis 1=raak)</t>
   </si>
+  <si>
+    <t>laag</t>
+  </si>
+  <si>
+    <t>hoog</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -101,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -120,6 +135,1040 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'case 3 dataset '!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'case 3 dataset '!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8.7782890118113618E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62171350943291559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7457142334788733E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60219792229471347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6272120447694932E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48603837874233669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64022476030778153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5113635547102986E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1513537918536336E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36483353952893305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55978345744634184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1513537918536336E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5055095856930997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29569754426673561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4582931184515483</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62171350943291559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36483353952893305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5113635547102986E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58158843247315162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3026407185956989E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9771044730546194E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60219792229471347</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5366703266462175</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64022476030778153</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10906506755930773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7937-4DEC-8EAF-15D5B7F793A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="989740000"/>
+        <c:axId val="989740416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="989740000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989740416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="989740416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989740000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9A70F2-A562-4CDD-547C-F0A576D84286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,11 +1433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" activeCellId="1" sqref="B2:B26 D2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -398,7 +1447,7 @@
     <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -408,8 +1457,14 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -419,8 +1474,14 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>8.7782890118113618E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.58456985826751395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -430,8 +1491,14 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>0.62171350943291559</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.98545913990731382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -441,8 +1508,14 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>8.7457142334788733E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.38969113920655829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -452,8 +1525,14 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>0.60219792229471347</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.98101718080555633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -463,8 +1542,14 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>6.6272120447694932E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.37229550926632593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -474,8 +1559,14 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>0.48603837874233669</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.93395681433760347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -485,8 +1576,14 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>0.64022476030778153</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9889029642637126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -496,8 +1593,14 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>1.5113635547102986E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.42665342901141406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -507,8 +1610,14 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>1.1513537918536336E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4077966984020624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -518,8 +1627,14 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>0.36483353952893305</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.8499953690293196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -529,8 +1644,14 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>0.55978345744634184</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.96810320600665667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -540,8 +1661,14 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>1.1513537918536336E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4077966984020624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -551,8 +1678,14 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>5.5055095856930997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.53413975891565413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -562,8 +1695,14 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>0.29569754426673561</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.79272317058997466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -573,8 +1712,14 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>0.4582931184515483</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.91737401428211152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -584,8 +1729,14 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>0.62171350943291559</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.98545913990731382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -595,8 +1746,14 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>0.36483353952893305</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.8499953690293196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -606,8 +1763,14 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>1.5113635547102986E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.42665342901141406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -617,8 +1780,14 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>0.58158843247315162</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.97532798913498564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -628,8 +1797,14 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>4.3026407185956989E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.51066238886292792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -639,8 +1814,14 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>1.9771044730546194E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.44630926189939318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -650,8 +1831,14 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>0.60219792229471347</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.98101718080555633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -661,8 +1848,14 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>0.5366703266462175</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.95902228555893254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -672,8 +1865,14 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>0.64022476030778153</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.9889029642637126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -682,10 +1881,17 @@
       </c>
       <c r="C26" s="1">
         <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.10906506755930773</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.6116284561604437</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>